--- a/StructureDefinition-ext-R5-Measure.supplementalData.xlsx
+++ b/StructureDefinition-ext-R5-Measure.supplementalData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>Meaning of the supplemental data.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-supplemental-data-example-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measure-supplemental-data-example-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:usage</t>
@@ -490,15 +490,6 @@
   </si>
   <si>
     <t>Extension.extension:usage.value[x]</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The intended usage for supplemental data elements in the measure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measure-data-usage-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:description</t>
@@ -928,8 +919,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.7890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="29.16015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2897,13 +2888,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2941,13 +2932,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2972,14 +2963,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3048,7 +3039,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3151,7 +3142,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3256,7 +3247,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3299,7 +3290,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3361,7 +3352,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3387,13 +3378,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3464,13 +3455,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3495,14 +3486,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3571,7 +3562,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3674,7 +3665,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3779,7 +3770,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3822,7 +3813,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3884,7 +3875,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -3910,13 +3901,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4118,13 +4109,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
